--- a/biology/Zoologie/Copa/Copa.xlsx
+++ b/biology/Zoologie/Copa/Copa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Copa est un genre d'araignées aranéomorphes de la famille des Corinnidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Copa est un genre d'araignées aranéomorphes de la famille des Corinnidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique subsaharienne, au Sri Lanka et en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique subsaharienne, au Sri Lanka et en Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.0, 20/03/2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.0, 20/03/2022) :
 Copa annulata Simon, 1896
 Copa flavoplumosa Simon, 1886
 Copa kabana Raven, 2015
@@ -579,7 +595,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Simon en 1886 dans les Drassidae.
 </t>
@@ -610,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1886 : « Études arachnologiques. 18e Mémoire. XXVI. Matériaux pour servir à la faune des Arachnides du Sénégal. (Suivi d'une appendice intitulé: Descriptions de plusieurs espèces africaines nouvelles). » Annales de la Société Entomologique de France, sér. 6, vol. 5, p. 345-396 (texte intégral).</t>
         </is>
